--- a/biology/Botanique/Parc_au_trésor/Parc_au_trésor.xlsx
+++ b/biology/Botanique/Parc_au_trésor/Parc_au_trésor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_au_tr%C3%A9sor</t>
+          <t>Parc_au_trésor</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc au trésor (finnois : Aarrepuisto) est un parc de la section Vesala du quartier de Mellunkylä à Helsinki en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc au trésor (finnois : Aarrepuisto) est un parc de la section Vesala du quartier de Mellunkylä à Helsinki en Finlande.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_au_tr%C3%A9sor</t>
+          <t>Parc_au_trésor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En venant de la station de métro de Mellunmäki, on traverse la rue Länsimäentie par le pont Aarteenetsijänssilta. 
 Le parc se trouve sur le côté gauche du pont, entre Aarteenetsijäntie et Aarteenetsijänkuja, et il est bordé par des immeubles d'habitation des années 1980. 
